--- a/data/Subset1_WithDialogActs/Math CZ3 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math CZ3 transcript.xlsx_with_dialog_acts.xlsx
@@ -1017,12 +1017,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2037,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3955,12 +3955,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5465,12 +5465,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5843,12 +5843,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6305,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6473,12 +6473,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7233,12 +7233,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7785,12 +7785,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8083,12 +8083,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8255,12 +8255,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8637,12 +8637,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8721,12 +8721,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8805,12 +8805,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8893,12 +8893,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9061,12 +9061,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9313,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9355,12 +9355,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9611,12 +9611,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9695,12 +9695,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9905,12 +9905,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9993,12 +9993,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10119,12 +10119,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10245,12 +10245,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10455,12 +10455,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10497,12 +10497,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10707,12 +10707,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11169,12 +11169,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11677,12 +11677,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11719,12 +11719,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12263,12 +12263,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12683,12 +12683,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13451,12 +13451,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13841,12 +13841,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13925,12 +13925,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14213,12 +14213,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14343,12 +14343,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14427,12 +14427,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14553,12 +14553,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14767,12 +14767,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15401,12 +15401,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15783,12 +15783,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15909,12 +15909,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15951,12 +15951,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16035,12 +16035,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16161,12 +16161,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17597,12 +17597,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17681,12 +17681,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17807,12 +17807,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18063,12 +18063,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18571,12 +18571,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18655,12 +18655,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18701,12 +18701,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18743,12 +18743,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18785,12 +18785,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18873,12 +18873,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18915,12 +18915,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19041,12 +19041,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19549,12 +19549,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19633,12 +19633,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20057,12 +20057,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20141,12 +20141,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20309,12 +20309,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20645,12 +20645,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20687,12 +20687,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20729,12 +20729,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20771,12 +20771,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21237,12 +21237,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22169,12 +22169,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22253,12 +22253,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23017,12 +23017,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24319,12 +24319,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24487,12 +24487,12 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25121,12 +25121,12 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25163,12 +25163,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25247,12 +25247,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25503,12 +25503,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25629,12 +25629,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25755,12 +25755,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25881,12 +25881,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25965,12 +25965,12 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26007,12 +26007,12 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26133,12 +26133,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26817,12 +26817,12 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26859,12 +26859,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27283,12 +27283,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27367,12 +27367,12 @@
       <c r="H637" t="inlineStr"/>
       <c r="I637" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27619,12 +27619,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27787,12 +27787,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28123,12 +28123,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28543,12 +28543,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28795,12 +28795,12 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28837,12 +28837,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28921,12 +28921,12 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29425,12 +29425,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29509,12 +29509,12 @@
       <c r="H688" t="inlineStr"/>
       <c r="I688" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29803,12 +29803,12 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30353,12 +30353,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30563,12 +30563,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30605,12 +30605,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30815,12 +30815,12 @@
       <c r="H719" t="inlineStr"/>
       <c r="I719" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31109,12 +31109,12 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31701,12 +31701,12 @@
       <c r="H740" t="inlineStr"/>
       <c r="I740" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31873,12 +31873,12 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33007,12 +33007,12 @@
       <c r="H771" t="inlineStr"/>
       <c r="I771" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33049,12 +33049,12 @@
       <c r="H772" t="inlineStr"/>
       <c r="I772" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33805,12 +33805,12 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34057,12 +34057,12 @@
       <c r="H796" t="inlineStr"/>
       <c r="I796" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35741,12 +35741,12 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35867,12 +35867,12 @@
       <c r="H839" t="inlineStr"/>
       <c r="I839" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36119,12 +36119,12 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36245,12 +36245,12 @@
       <c r="H848" t="inlineStr"/>
       <c r="I848" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36757,12 +36757,12 @@
       <c r="H860" t="inlineStr"/>
       <c r="I860" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36925,12 +36925,12 @@
       <c r="H864" t="inlineStr"/>
       <c r="I864" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37345,12 +37345,12 @@
       <c r="H874" t="inlineStr"/>
       <c r="I874" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37685,12 +37685,12 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37727,12 +37727,12 @@
       <c r="H883" t="inlineStr"/>
       <c r="I883" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37853,12 +37853,12 @@
       <c r="H886" t="inlineStr"/>
       <c r="I886" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38147,12 +38147,12 @@
       <c r="H893" t="inlineStr"/>
       <c r="I893" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38903,12 +38903,12 @@
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39751,12 +39751,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39881,12 +39881,12 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39923,12 +39923,12 @@
       <c r="H935" t="inlineStr"/>
       <c r="I935" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -40175,12 +40175,12 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40553,12 +40553,12 @@
       <c r="H950" t="inlineStr"/>
       <c r="I950" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
